--- a/Instances/04_Uniform.xlsx
+++ b/Instances/04_Uniform.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2291,7 +2291,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2320,7 +2320,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2378,7 +2378,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2407,7 +2407,7 @@
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2436,7 +2436,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2465,7 +2465,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2494,7 +2494,7 @@
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2523,7 +2523,7 @@
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2552,7 +2552,7 @@
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16.2</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.3</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24.3</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Uniform.xlsx
+++ b/Instances/04_Uniform.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2918808517467866</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2291,7 +2291,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.08459463330341123</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2320,7 +2320,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.06756893656532117</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.09962753606356489</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2378,7 +2378,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.07566923982713464</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2407,7 +2407,7 @@
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.08038716618218042</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2436,7 +2436,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.07485553048962146</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2465,7 +2465,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.09068792189330792</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2494,7 +2494,7 @@
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.08867717978077312</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2523,7 +2523,7 @@
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.09071015562992304</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2552,7 +2552,7 @@
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.08130066288100468</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.263876978015686</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.09632695686768455</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.08332865504335293</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.07867730327826601</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.09411004968425714</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.09421877239277122</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.0671578897018688</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.08653685788478389</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2813,7 +2813,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1054003492672344</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2842,7 +2842,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.1216849366231362</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3628618818836101</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16.2</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Uniform.xlsx
+++ b/Instances/04_Uniform.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2918808517467866</v>
+        <v>0.01763114396654855</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2291,7 +2291,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08459463330341123</v>
+        <v>0.004807423636767648</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2320,7 +2320,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06756893656532117</v>
+        <v>0.004724016195893528</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09962753606356489</v>
+        <v>0.004981558808676797</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2378,7 +2378,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07566923982713464</v>
+        <v>0.005456117960582501</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2407,7 +2407,7 @@
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08038716618218042</v>
+        <v>0.004887656581437585</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2436,7 +2436,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07485553048962146</v>
+        <v>0.005172373783070384</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2465,7 +2465,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09068792189330792</v>
+        <v>0.006123136832744137</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2494,7 +2494,7 @@
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08867717978077312</v>
+        <v>0.005739958762707071</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2523,7 +2523,7 @@
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09071015562992304</v>
+        <v>0.004740342928733137</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2552,7 +2552,7 @@
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08130066288100468</v>
+        <v>0.004618416441222804</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.263876978015686</v>
+        <v>0.0177885589732098</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09632695686768455</v>
+        <v>0.005768855448464431</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08332865504335293</v>
+        <v>0.005526526861420863</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07867730327826601</v>
+        <v>0.004936143663877801</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09411004968425714</v>
+        <v>0.00539622785133867</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09421877239277122</v>
+        <v>0.004131349564343606</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0671578897018688</v>
+        <v>0.004764859951113786</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08653685788478389</v>
+        <v>0.005774670304521752</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1054003492672344</v>
+        <v>0.00545096143549044</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1216849366231362</v>
+        <v>0.007626652944672061</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3628618818836101</v>
+        <v>0.0223886452969549</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.4</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.1</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16.2</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.1</v>
+        <v>32.4</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Uniform.xlsx
+++ b/Instances/04_Uniform.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01763114396654855</v>
+        <v>0.1430394797228154</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004807423636767648</v>
+        <v>0.03433472659435373</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004724016195893528</v>
+        <v>0.04156708250270967</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004981558808676797</v>
+        <v>0.03887503060657357</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005456117960582501</v>
+        <v>0.03755822609022413</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004887656581437585</v>
+        <v>0.0488357181880798</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005172373783070384</v>
+        <v>0.04863554966920965</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006123136832744137</v>
+        <v>0.0349476200897656</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005739958762707071</v>
+        <v>0.05116999982528078</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004740342928733137</v>
+        <v>0.03582759828417482</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004618416441222804</v>
+        <v>0.03727807990644617</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0177885589732098</v>
+        <v>0.1439769964408558</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005768855448464431</v>
+        <v>0.03711976028788152</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005526526861420863</v>
+        <v>0.03997678954793985</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004936143663877801</v>
+        <v>0.04105374339874556</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00539622785133867</v>
+        <v>0.03561621128257952</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004131349564343606</v>
+        <v>0.04221557776703574</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004764859951113786</v>
+        <v>0.04060793886629892</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005774670304521752</v>
+        <v>0.05191119145950446</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00545096143549044</v>
+        <v>0.04347092378000536</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007626652944672061</v>
+        <v>0.0581038355091314</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0223886452969549</v>
+        <v>0.2225538195196258</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.3</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24.3</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.4</v>
+        <v>40.5</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Uniform.xlsx
+++ b/Instances/04_Uniform.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1430394797228154</v>
+        <v>0.1782</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2291,7 +2291,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03433472659435373</v>
+        <v>0.05827499999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2320,7 +2320,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04156708250270967</v>
+        <v>0.05834444444444443</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03887503060657357</v>
+        <v>0.05803611111111111</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2378,7 +2378,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03755822609022413</v>
+        <v>0.05693888888888888</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2407,7 +2407,7 @@
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0488357181880798</v>
+        <v>0.05706666666666666</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2436,7 +2436,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04863554966920965</v>
+        <v>0.05682222222222223</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2465,7 +2465,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0349476200897656</v>
+        <v>0.06011388888888888</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2494,7 +2494,7 @@
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05116999982528078</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2523,7 +2523,7 @@
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03582759828417482</v>
+        <v>0.05969166666666666</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2552,7 +2552,7 @@
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03727807990644617</v>
+        <v>0.06008333333333334</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1439769964408558</v>
+        <v>0.1706833333333333</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03711976028788152</v>
+        <v>0.05701388888888888</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03997678954793985</v>
+        <v>0.05624722222222223</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04105374339874556</v>
+        <v>0.05566111111111111</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03561621128257952</v>
+        <v>0.05582499999999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04221557776703574</v>
+        <v>0.05595</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04060793886629892</v>
+        <v>0.05572222222222222</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2784,7 +2784,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05191119145950446</v>
+        <v>0.06574999999999999</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2813,7 +2813,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04347092378000536</v>
+        <v>0.0698</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2842,7 +2842,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0581038355091314</v>
+        <v>0.0864</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2225538195196258</v>
+        <v>0.26585</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24.3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16.2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.5</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_Uniform.xlsx
+++ b/Instances/04_Uniform.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1782</v>
+        <v>0.09622800000000001</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2291,7 +2291,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05827499999999999</v>
+        <v>0.0314685</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2320,7 +2320,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05834444444444443</v>
+        <v>0.03150600000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05803611111111111</v>
+        <v>0.03133950000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2378,7 +2378,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05693888888888888</v>
+        <v>0.030747</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2407,7 +2407,7 @@
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05706666666666666</v>
+        <v>0.030816</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2436,7 +2436,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05682222222222223</v>
+        <v>0.030684</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2465,7 +2465,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06011388888888888</v>
+        <v>0.0324615</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2494,7 +2494,7 @@
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05999999999999999</v>
+        <v>0.0324</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2523,7 +2523,7 @@
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05969166666666666</v>
+        <v>0.0322335</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2552,7 +2552,7 @@
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06008333333333334</v>
+        <v>0.032445</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1706833333333333</v>
+        <v>0.092169</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05701388888888888</v>
+        <v>0.0307875</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05624722222222223</v>
+        <v>0.0303735</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05566111111111111</v>
+        <v>0.030057</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05582499999999999</v>
+        <v>0.0301455</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05595</v>
+        <v>0.030213</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05572222222222222</v>
+        <v>0.03009</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2784,7 +2784,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06574999999999999</v>
+        <v>0.03550500000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2813,7 +2813,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0698</v>
+        <v>0.037692</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2842,7 +2842,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0864</v>
+        <v>0.046656</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.26585</v>
+        <v>0.143559</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
